--- a/Local/Data/Export/DQ-Report_meDIC_StandortName_FHIR_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_meDIC_StandortName_FHIR_2020.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">Abbreviation</t>
   </si>
@@ -189,15 +189,6 @@
     <t xml:space="preserve">27</t>
   </si>
   <si>
-    <t xml:space="preserve">mxCase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed Cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
     <t xml:space="preserve">orphaCase</t>
   </si>
   <si>
@@ -249,7 +240,7 @@
     <t xml:space="preserve">Execution Time</t>
   </si>
   <si>
-    <t xml:space="preserve">0.08</t>
+    <t xml:space="preserve">0.06</t>
   </si>
   <si>
     <t xml:space="preserve">par_computing</t>
@@ -1111,18 +1102,7 @@
       <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34"/>
+      <c r="C33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1147,162 +1127,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1311,7 +1291,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
